--- a/Results/SHET_CNODES.xlsx
+++ b/Results/SHET_CNODES.xlsx
@@ -844,16 +844,16 @@
         <v>31</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01795748071331792</v>
+        <v>0.01100420468274052</v>
       </c>
       <c r="D5" t="n">
-        <v>0.006184359766381573</v>
+        <v>0.001718939232313911</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8946938775510205</v>
+        <v>0.8824489795918368</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1014283661148499</v>
+        <v>0.1077983833918249</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -862,118 +862,118 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1342.6</v>
+        <v>1409</v>
       </c>
       <c r="J5" t="n">
-        <v>167.0490280659477</v>
+        <v>140.7266854580182</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0005785919279786339</v>
+        <v>0.0008353380422229745</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003631883536665838</v>
+        <v>0.0006715602895577635</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01032169902364106</v>
+        <v>0.006079089819492563</v>
       </c>
       <c r="N5" t="n">
-        <v>0.004284109169295297</v>
+        <v>0.001108087350640651</v>
       </c>
       <c r="O5" t="n">
-        <v>0.007057189761698231</v>
+        <v>0.004089776821024983</v>
       </c>
       <c r="P5" t="n">
-        <v>0.005500180752466998</v>
+        <v>0.0009823533951823912</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9243127048504707</v>
+        <v>0.8561618929162003</v>
       </c>
       <c r="R5" t="n">
-        <v>0.08973528821439265</v>
+        <v>0.1493908566885871</v>
       </c>
       <c r="S5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.847076812334269</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3.847076812334269</v>
+      </c>
+      <c r="W5" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8.584870412533901</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>5.639148871948674</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>40.29939393939394</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>7.551419815537121</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>164.2</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>106.363527583472</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>4.69041575982343</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>38.25</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6.34428877022476</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>16.37244636576953</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>114</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>104.6064051576193</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2.607680962081059</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1.140175425099138</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>17.55936</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>22.24679233255887</v>
+      </c>
+      <c r="AS5" t="n">
         <v>2.2</v>
       </c>
-      <c r="T5" t="n">
-        <v>1.135292424395093</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.135292424395093</v>
-      </c>
-      <c r="W5" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="X5" t="n">
-        <v>6.325433669805661</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>3.40587727318528</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>4.567092437572655</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>91.59999999999999</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>39.83354253780489</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>36.42857142857143</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>7.322502824789323</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>38.71428571428572</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>4.15187851918806</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>18.69379642264668</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>37.62741317473502</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0.9428090415820634</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0.8755950357709131</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>5.74752</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>2.714326192139282</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>1.1</v>
-      </c>
       <c r="AT5" t="n">
-        <v>0.9944289260117533</v>
+        <v>1.483239697419133</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -984,16 +984,16 @@
         <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0812690720442364</v>
+        <v>0.03837953295488799</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02567736197860503</v>
+        <v>0.009047190060983581</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9517373737373738</v>
+        <v>0.9235151515151515</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0503741018441756</v>
+        <v>0.07854749654410113</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -1002,118 +1002,118 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4530</v>
+        <v>4961.2</v>
       </c>
       <c r="J6" t="n">
-        <v>741.6686891358192</v>
+        <v>950.5988638747681</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00521398411184997</v>
+        <v>0.0007755978879977934</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008887589327406424</v>
+        <v>9.793786544053093e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04991972630133685</v>
+        <v>0.02268760371317488</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01896700519405639</v>
+        <v>0.005356961040440545</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02613536163104958</v>
+        <v>0.01491633135371531</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01068258715202346</v>
+        <v>0.003823571818803193</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.874081441592192</v>
+        <v>0.8697793378744861</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1114219606132713</v>
+        <v>0.03861000434300775</v>
       </c>
       <c r="S6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.643167672515498</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.643167672515498</v>
+      </c>
+      <c r="W6" t="n">
+        <v>65</v>
+      </c>
+      <c r="X6" t="n">
+        <v>15.54027026792005</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>4.61519230368573</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>77.88571428571429</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>10.31022779544068</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>523.4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>122.9483631448585</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>62</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15.98436736314578</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8.203657720797473</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>71.75714285714285</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11.84504546385603</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>410.2</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>119.0071426427843</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.8366600265340756</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>23.49072</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>7.077739330605502</v>
+      </c>
+      <c r="AS6" t="n">
         <v>3.2</v>
       </c>
-      <c r="T6" t="n">
-        <v>1.032795558988644</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.032795558988644</v>
-      </c>
-      <c r="W6" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="X6" t="n">
-        <v>10.5282688246665</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>7.093815773067568</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>81.07333333333334</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>6.113490445899034</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>257.7</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>78.44042325230021</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>65.40000000000001</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>10.87504789261485</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>73.7</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>11.60507551796962</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>70.15833333333333</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>10.7301676088298</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>77.03974443248252</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>1.05409255338946</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0.4216370213557839</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>9.03328</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>4.811102141413246</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AT6" t="n">
-        <v>0.6324555320336759</v>
+        <v>0.8366600265340756</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1124,16 +1124,16 @@
         <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>1.379319289959251</v>
+        <v>0.9089675433448956</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4465439793702565</v>
+        <v>0.0946129748078703</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9904729458917836</v>
+        <v>0.9633026052104209</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01292929082099426</v>
+        <v>0.01369533858459113</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1142,118 +1142,118 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134951.4</v>
+        <v>114321.2</v>
       </c>
       <c r="J7" t="n">
-        <v>18021.29201928775</v>
+        <v>10917.54884120057</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0128322192648004</v>
+        <v>0.00883218922403688</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01436558285609018</v>
+        <v>0.009137862154113205</v>
       </c>
       <c r="M7" t="n">
-        <v>0.871766768975948</v>
+        <v>0.5157694548932819</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2841902014706403</v>
+        <v>0.043433591531958</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4947203017185025</v>
+        <v>0.3843658992275769</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1585535387454052</v>
+        <v>0.06495177417522086</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9461549483067376</v>
+        <v>0.8276210982810751</v>
       </c>
       <c r="R7" t="n">
-        <v>0.07291052110092566</v>
+        <v>0.04956799379867157</v>
       </c>
       <c r="S7" t="n">
-        <v>2.6</v>
+        <v>17.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.349897115421106</v>
+        <v>5.412947441089743</v>
       </c>
       <c r="U7" t="n">
-        <v>1.6</v>
+        <v>16.6</v>
       </c>
       <c r="V7" t="n">
-        <v>1.349897115421106</v>
+        <v>5.412947441089743</v>
       </c>
       <c r="W7" t="n">
-        <v>435.6</v>
+        <v>304.6</v>
       </c>
       <c r="X7" t="n">
-        <v>61.76514659039783</v>
+        <v>27.70920424696458</v>
       </c>
       <c r="Y7" t="n">
-        <v>483.8</v>
+        <v>446.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.78072542409917</v>
+        <v>16.47118696390761</v>
       </c>
       <c r="AA7" t="n">
-        <v>460.4216666666667</v>
+        <v>385.4050724637681</v>
       </c>
       <c r="AB7" t="n">
-        <v>38.48850561940298</v>
+        <v>26.06584229249013</v>
       </c>
       <c r="AC7" t="n">
-        <v>1158.5</v>
+        <v>6677.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>533.9232674790971</v>
+        <v>1740.454768156874</v>
       </c>
       <c r="AE7" t="n">
-        <v>391.5714285714286</v>
+        <v>289.8</v>
       </c>
       <c r="AF7" t="n">
-        <v>49.9194589409018</v>
+        <v>30.07823133098088</v>
       </c>
       <c r="AG7" t="n">
-        <v>434.1428571428572</v>
+        <v>403.6</v>
       </c>
       <c r="AH7" t="n">
-        <v>40.69163948293954</v>
+        <v>24.89578277540194</v>
       </c>
       <c r="AI7" t="n">
-        <v>288.6083333333333</v>
+        <v>359.4696887907414</v>
       </c>
       <c r="AJ7" t="n">
-        <v>202.228525733563</v>
+        <v>27.83222241800041</v>
       </c>
       <c r="AK7" t="n">
-        <v>652.4</v>
+        <v>5855.2</v>
       </c>
       <c r="AL7" t="n">
-        <v>530.6013778932563</v>
+        <v>1605.98060386793</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.3</v>
+        <v>6.2</v>
       </c>
       <c r="AN7" t="n">
-        <v>1.05934990547138</v>
+        <v>2.280350850198276</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.7378647873726218</v>
+        <v>0.4472135954999579</v>
       </c>
       <c r="AQ7" t="n">
-        <v>6.9712416</v>
+        <v>77.25148159999998</v>
       </c>
       <c r="AR7" t="n">
-        <v>2.971906784200608</v>
+        <v>34.7949408119442</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.269295517643985</v>
+        <v>0.8944271909999159</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1264,16 +1264,16 @@
         <v>31</v>
       </c>
       <c r="C8" t="n">
-        <v>3.695492178648322</v>
+        <v>3.399246591312142</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4993073331696805</v>
+        <v>0.4444190710169314</v>
       </c>
       <c r="E8" t="n">
-        <v>0.970059059059059</v>
+        <v>0.9737353353353353</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03596520866484317</v>
+        <v>0.01223106500282194</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1282,118 +1282,118 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>497869.6</v>
+        <v>462114</v>
       </c>
       <c r="J8" t="n">
-        <v>81067.22169656488</v>
+        <v>74933.22056337897</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01120677501140985</v>
+        <v>0.01250146363377773</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004322030555557959</v>
+        <v>0.00488257213272038</v>
       </c>
       <c r="M8" t="n">
-        <v>2.282521806009723</v>
+        <v>2.029511567912778</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3475710728540995</v>
+        <v>0.2974415694572466</v>
       </c>
       <c r="O8" t="n">
-        <v>1.40176359762719</v>
+        <v>1.357233559765586</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1649280869922463</v>
+        <v>0.1528556851616515</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9059543221544157</v>
+        <v>0.8374834443581655</v>
       </c>
       <c r="R8" t="n">
-        <v>0.07255162407094533</v>
+        <v>0.03521732052937772</v>
       </c>
       <c r="S8" t="n">
-        <v>4.6</v>
+        <v>27.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.897366596101028</v>
+        <v>17.27136358253163</v>
       </c>
       <c r="U8" t="n">
-        <v>3.6</v>
+        <v>26.6</v>
       </c>
       <c r="V8" t="n">
-        <v>1.897366596101028</v>
+        <v>17.27136358253163</v>
       </c>
       <c r="W8" t="n">
-        <v>752.2</v>
+        <v>649.8</v>
       </c>
       <c r="X8" t="n">
-        <v>170.5838340653781</v>
+        <v>94.66625586765329</v>
       </c>
       <c r="Y8" t="n">
-        <v>937.1</v>
+        <v>903</v>
       </c>
       <c r="Z8" t="n">
-        <v>51.48128030869301</v>
+        <v>23.89560629069704</v>
       </c>
       <c r="AA8" t="n">
-        <v>861.625119047619</v>
+        <v>799.2365316517099</v>
       </c>
       <c r="AB8" t="n">
-        <v>91.78812312057102</v>
+        <v>58.81683728513687</v>
       </c>
       <c r="AC8" t="n">
-        <v>3922.4</v>
+        <v>21929.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>1627.045324780133</v>
+        <v>13642.01653715462</v>
       </c>
       <c r="AE8" t="n">
-        <v>720.1</v>
+        <v>625.2</v>
       </c>
       <c r="AF8" t="n">
-        <v>162.4940682678055</v>
+        <v>91.72622307715498</v>
       </c>
       <c r="AG8" t="n">
-        <v>870.8</v>
+        <v>852.6</v>
       </c>
       <c r="AH8" t="n">
-        <v>107.2036483624612</v>
+        <v>36.01805103000439</v>
       </c>
       <c r="AI8" t="n">
-        <v>805.6661904761904</v>
+        <v>758.8967783094099</v>
       </c>
       <c r="AJ8" t="n">
-        <v>127.9145686109982</v>
+        <v>65.2193345262437</v>
       </c>
       <c r="AK8" t="n">
-        <v>2859.3</v>
+        <v>20170.8</v>
       </c>
       <c r="AL8" t="n">
-        <v>1578.509215824996</v>
+        <v>13324.71203065942</v>
       </c>
       <c r="AM8" t="n">
-        <v>2.4</v>
+        <v>8</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.9660917830792959</v>
+        <v>2.449489742783178</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.7888106377466155</v>
+        <v>1.643167672515498</v>
       </c>
       <c r="AQ8" t="n">
-        <v>12.3776184</v>
+        <v>141.6857104</v>
       </c>
       <c r="AR8" t="n">
-        <v>6.390727190092762</v>
+        <v>102.6089649224628</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.7</v>
+        <v>6.4</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.05934990547138</v>
+        <v>2.509980079602227</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1404,16 +1404,16 @@
         <v>31</v>
       </c>
       <c r="C9" t="n">
-        <v>23.63742184707681</v>
+        <v>23.33855421316585</v>
       </c>
       <c r="D9" t="n">
-        <v>2.439614637972741</v>
+        <v>1.125328045202379</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9822613205282112</v>
+        <v>0.9840085794317728</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02543443431732723</v>
+        <v>0.01366038391944263</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1422,118 +1422,118 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3210140.3</v>
+        <v>2916732</v>
       </c>
       <c r="J9" t="n">
-        <v>395451.1523305586</v>
+        <v>171083.8258530011</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0785399028386152</v>
+        <v>0.02656982616980557</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1194456966221899</v>
+        <v>0.007577835088597865</v>
       </c>
       <c r="M9" t="n">
-        <v>14.88238116061806</v>
+        <v>14.14678265132267</v>
       </c>
       <c r="N9" t="n">
-        <v>1.64750191004193</v>
+        <v>0.9231462714211706</v>
       </c>
       <c r="O9" t="n">
-        <v>8.676500783620131</v>
+        <v>9.165201735673373</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8171077368030276</v>
+        <v>0.5081022525577169</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9379582349240255</v>
+        <v>0.8879623901337971</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0780397449328587</v>
+        <v>0.06110386948498137</v>
       </c>
       <c r="S9" t="n">
-        <v>4.7</v>
+        <v>17.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.946506842754191</v>
+        <v>10.64424727258814</v>
       </c>
       <c r="U9" t="n">
-        <v>3.7</v>
+        <v>16.6</v>
       </c>
       <c r="V9" t="n">
-        <v>1.946506842754191</v>
+        <v>10.64424727258814</v>
       </c>
       <c r="W9" t="n">
-        <v>2038.3</v>
+        <v>1905.4</v>
       </c>
       <c r="X9" t="n">
-        <v>319.1666405570051</v>
+        <v>292.1580051958186</v>
       </c>
       <c r="Y9" t="n">
-        <v>2398.6</v>
+        <v>2336.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>130.2546224387706</v>
+        <v>95.46570064688154</v>
       </c>
       <c r="AA9" t="n">
-        <v>2241.569047619048</v>
+        <v>2141.016111111111</v>
       </c>
       <c r="AB9" t="n">
-        <v>172.3450310178779</v>
+        <v>165.7173146692066</v>
       </c>
       <c r="AC9" t="n">
-        <v>10376.9</v>
+        <v>36309.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>4034.30141136948</v>
+        <v>20017.75998207592</v>
       </c>
       <c r="AE9" t="n">
-        <v>1979.3</v>
+        <v>1845.4</v>
       </c>
       <c r="AF9" t="n">
-        <v>343.7929124729983</v>
+        <v>280.3092934599208</v>
       </c>
       <c r="AG9" t="n">
-        <v>2217.3</v>
+        <v>2194.4</v>
       </c>
       <c r="AH9" t="n">
-        <v>240.5650986046535</v>
+        <v>149.3730229994694</v>
       </c>
       <c r="AI9" t="n">
-        <v>2115.683333333333</v>
+        <v>2039.111880666245</v>
       </c>
       <c r="AJ9" t="n">
-        <v>250.1180301624528</v>
+        <v>192.2114288765386</v>
       </c>
       <c r="AK9" t="n">
-        <v>7698.9</v>
+        <v>32281.8</v>
       </c>
       <c r="AL9" t="n">
-        <v>3988.104045505555</v>
+        <v>18804.39937089191</v>
       </c>
       <c r="AM9" t="n">
-        <v>3</v>
+        <v>6.6</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.49071198499986</v>
+        <v>1.673320053068151</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.8366600265340756</v>
       </c>
       <c r="AQ9" t="n">
-        <v>15.890883008</v>
+        <v>88.17025126400004</v>
       </c>
       <c r="AR9" t="n">
-        <v>10.29792016521447</v>
+        <v>53.03757023718197</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.07496769977314</v>
+        <v>1.483239697419133</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1544,16 +1544,16 @@
         <v>31</v>
       </c>
       <c r="C10" t="n">
-        <v>92.70309194555928</v>
+        <v>99.51714975969101</v>
       </c>
       <c r="D10" t="n">
-        <v>10.42711437379745</v>
+        <v>4.774151052363633</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9809155591118224</v>
+        <v>0.9849849969993999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01652100037879619</v>
+        <v>0.004956610540086744</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1562,118 +1562,118 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>12344509.4</v>
+        <v>12121530.2</v>
       </c>
       <c r="J10" t="n">
-        <v>1622504.82092009</v>
+        <v>538065.6614811987</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2424208349078867</v>
+        <v>0.326540365739487</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4202381366590838</v>
+        <v>0.4489552373225382</v>
       </c>
       <c r="M10" t="n">
-        <v>58.52531866251695</v>
+        <v>62.00866163961804</v>
       </c>
       <c r="N10" t="n">
-        <v>7.516175239682206</v>
+        <v>3.682800698187897</v>
       </c>
       <c r="O10" t="n">
-        <v>33.93535244813445</v>
+        <v>37.18194775433349</v>
       </c>
       <c r="P10" t="n">
-        <v>3.073997509713122</v>
+        <v>1.121958106886997</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.8829750756029711</v>
+        <v>0.8898914472599948</v>
       </c>
       <c r="R10" t="n">
-        <v>0.05664250900519379</v>
+        <v>0.02174203871502935</v>
       </c>
       <c r="S10" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="T10" t="n">
+        <v>28.42006333560852</v>
+      </c>
+      <c r="U10" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>28.42006333560852</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3289.4</v>
+      </c>
+      <c r="X10" t="n">
+        <v>75.77136662354718</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>4681</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>67.22350779303324</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>4141.798821412505</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>48.08390815199677</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>170298.4</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>116344.2504780533</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>3118.8</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>136.9861306848252</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>4439</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>143.2096365472659</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>3928.115368849283</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>48.54444512637016</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>157673</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>110421.0540952223</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1.483239697419133</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>181.366246592</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>107.5565751297858</v>
+      </c>
+      <c r="AS10" t="n">
         <v>5.8</v>
       </c>
-      <c r="T10" t="n">
-        <v>2.485513584307633</v>
-      </c>
-      <c r="U10" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.485513584307633</v>
-      </c>
-      <c r="W10" t="n">
-        <v>3875.4</v>
-      </c>
-      <c r="X10" t="n">
-        <v>540.0255549508745</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>4651.8</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>176.391483795436</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>4347.526944444445</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>226.2797800924479</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>24928.9</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>10276.52024384822</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>3676.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>502.2547494383038</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>4321.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>248.9659726861395</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>4081.458928571429</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>242.3944148383228</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>19506.1</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>10120.7553785937</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>1.286683937707919</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>0.4830458915396479</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>17.794560928</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>9.051049889265563</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>2.9</v>
-      </c>
       <c r="AT10" t="n">
-        <v>1.197218999737865</v>
+        <v>1.483239697419133</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -1684,16 +1684,16 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>441.7130629528091</v>
+        <v>624.5732545036398</v>
       </c>
       <c r="D11" t="n">
-        <v>43.63305347151587</v>
+        <v>251.2636499562884</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9898106710671067</v>
+        <v>0.9829042744274428</v>
       </c>
       <c r="F11" t="n">
-        <v>0.006669228780045316</v>
+        <v>0.01670126588516543</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1702,118 +1702,118 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>51496556.5</v>
+        <v>47866112.2</v>
       </c>
       <c r="J11" t="n">
-        <v>4197782.698960494</v>
+        <v>7010016.587425218</v>
       </c>
       <c r="K11" t="n">
-        <v>2.119895963374938</v>
+        <v>7.97024701358971</v>
       </c>
       <c r="L11" t="n">
-        <v>2.853210854310602</v>
+        <v>15.10988813911155</v>
       </c>
       <c r="M11" t="n">
-        <v>283.3060692241597</v>
+        <v>387.0281378857379</v>
       </c>
       <c r="N11" t="n">
-        <v>32.21426033453165</v>
+        <v>143.7423027381331</v>
       </c>
       <c r="O11" t="n">
-        <v>156.2870977652744</v>
+        <v>229.5748696043121</v>
       </c>
       <c r="P11" t="n">
-        <v>11.66873045916245</v>
+        <v>93.34676399348673</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9239427937673885</v>
+        <v>0.866454352434089</v>
       </c>
       <c r="R11" t="n">
-        <v>0.05486961694943199</v>
+        <v>0.08534616902698559</v>
       </c>
       <c r="S11" t="n">
-        <v>7.4</v>
+        <v>48</v>
       </c>
       <c r="T11" t="n">
-        <v>1.955050439815357</v>
+        <v>23.48403713163476</v>
       </c>
       <c r="U11" t="n">
-        <v>6.4</v>
+        <v>47</v>
       </c>
       <c r="V11" t="n">
-        <v>1.955050439815357</v>
+        <v>23.48403713163476</v>
       </c>
       <c r="W11" t="n">
-        <v>7494.4</v>
+        <v>6423</v>
       </c>
       <c r="X11" t="n">
-        <v>872.1717720724513</v>
+        <v>745.0389251576055</v>
       </c>
       <c r="Y11" t="n">
-        <v>9560.1</v>
+        <v>9222</v>
       </c>
       <c r="Z11" t="n">
-        <v>310.6385716909963</v>
+        <v>538.3326109386278</v>
       </c>
       <c r="AA11" t="n">
-        <v>8768.74992063492</v>
+        <v>8126.345870837281</v>
       </c>
       <c r="AB11" t="n">
-        <v>405.2949250416917</v>
+        <v>693.7099110548738</v>
       </c>
       <c r="AC11" t="n">
-        <v>64236</v>
+        <v>383214.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>15027.60902842202</v>
+        <v>187147.5918501224</v>
       </c>
       <c r="AE11" t="n">
-        <v>7284.6</v>
+        <v>6154.2</v>
       </c>
       <c r="AF11" t="n">
-        <v>747.2175348882308</v>
+        <v>691.4283766233492</v>
       </c>
       <c r="AG11" t="n">
-        <v>9105.1</v>
+        <v>8785.200000000001</v>
       </c>
       <c r="AH11" t="n">
-        <v>429.0608477956374</v>
+        <v>629.5297451272656</v>
       </c>
       <c r="AI11" t="n">
-        <v>8414.378373015872</v>
+        <v>7783.190132245705</v>
       </c>
       <c r="AJ11" t="n">
-        <v>421.4415076300687</v>
+        <v>730.0713143098101</v>
       </c>
       <c r="AK11" t="n">
-        <v>53211.6</v>
+        <v>357785.8</v>
       </c>
       <c r="AL11" t="n">
-        <v>14734.53448497403</v>
+        <v>177840.09130452</v>
       </c>
       <c r="AM11" t="n">
-        <v>4.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.35400640077266</v>
+        <v>2.280350850198276</v>
       </c>
       <c r="AO11" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.5676462121975467</v>
+        <v>1.224744871391589</v>
       </c>
       <c r="AQ11" t="n">
-        <v>28.796640296</v>
+        <v>280.1804019200001</v>
       </c>
       <c r="AR11" t="n">
-        <v>11.49620700253832</v>
+        <v>141.2710653561527</v>
       </c>
       <c r="AS11" t="n">
-        <v>3.3</v>
+        <v>5.6</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.6749485577105528</v>
+        <v>2.073644135332772</v>
       </c>
     </row>
   </sheetData>
